--- a/data/trans_orig/ip24_2023_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/ip24_2023_R-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{03AD9755-73D6-44E9-BF24-6DFE6CA539E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D768C4D-6821-45F1-93D7-261BA3D0A1AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{10263BFC-2E4E-48B3-8F8D-4A9713C5D22D}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A6347CE5-A202-4C30-8669-D4B6A4F825C4}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="122">
   <si>
     <t>Menores que no realizan actividad física en su tiempo libre en 2023 (Tasa respuesta: 99,38%)</t>
   </si>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -74,28 +74,28 @@
     <t>25,41%</t>
   </si>
   <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>55,83%</t>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>57,36%</t>
   </si>
   <si>
     <t>9,23%</t>
   </si>
   <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
   </si>
   <si>
     <t>16,04%</t>
   </si>
   <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>33,31%</t>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>32,19%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,91 +104,91 @@
     <t>74,59%</t>
   </si>
   <si>
-    <t>44,17%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
+    <t>42,64%</t>
+  </si>
+  <si>
+    <t>91,69%</t>
   </si>
   <si>
     <t>90,77%</t>
   </si>
   <si>
-    <t>75,83%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
+    <t>75,75%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
   </si>
   <si>
     <t>83,96%</t>
   </si>
   <si>
-    <t>66,69%</t>
-  </si>
-  <si>
-    <t>93,31%</t>
+    <t>67,81%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>10,73%</t>
   </si>
   <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
   </si>
   <si>
     <t>10,66%</t>
   </si>
   <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
   </si>
   <si>
     <t>10,7%</t>
   </si>
   <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
   </si>
   <si>
     <t>89,27%</t>
   </si>
   <si>
-    <t>82,56%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
+    <t>82,95%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
   </si>
   <si>
     <t>89,34%</t>
   </si>
   <si>
-    <t>84,31%</t>
-  </si>
-  <si>
-    <t>93,18%</t>
+    <t>84,27%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
   </si>
   <si>
     <t>89,3%</t>
   </si>
   <si>
-    <t>85,59%</t>
-  </si>
-  <si>
-    <t>92,8%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>84,47%</t>
+  </si>
+  <si>
+    <t>92,35%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>7,67%</t>
@@ -197,97 +197,97 @@
     <t>5,2%</t>
   </si>
   <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
   </si>
   <si>
     <t>92,33%</t>
   </si>
   <si>
-    <t>89,09%</t>
+    <t>88,84%</t>
   </si>
   <si>
     <t>94,8%</t>
   </si>
   <si>
-    <t>88,73%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
-  </si>
-  <si>
-    <t>89,63%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>88,52%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>89,88%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>13,04%</t>
   </si>
   <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
   </si>
   <si>
     <t>6,23%</t>
   </si>
   <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
   </si>
   <si>
     <t>9,67%</t>
   </si>
   <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
   </si>
   <si>
     <t>86,96%</t>
   </si>
   <si>
-    <t>81,38%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
+    <t>81,47%</t>
+  </si>
+  <si>
+    <t>91,28%</t>
   </si>
   <si>
     <t>93,77%</t>
   </si>
   <si>
-    <t>88,18%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
+    <t>87,64%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
   </si>
   <si>
     <t>90,33%</t>
   </si>
   <si>
-    <t>86,29%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
+    <t>86,79%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -296,103 +296,109 @@
     <t>20,87%</t>
   </si>
   <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>26,63%</t>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>26,62%</t>
   </si>
   <si>
     <t>10,58%</t>
   </si>
   <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
   </si>
   <si>
     <t>15,79%</t>
   </si>
   <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
   </si>
   <si>
     <t>79,13%</t>
   </si>
   <si>
-    <t>73,37%</t>
-  </si>
-  <si>
-    <t>83,88%</t>
+    <t>73,38%</t>
+  </si>
+  <si>
+    <t>84,3%</t>
   </si>
   <si>
     <t>89,42%</t>
   </si>
   <si>
-    <t>84,78%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
+    <t>84,89%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
   </si>
   <si>
     <t>84,21%</t>
   </si>
   <si>
-    <t>80,78%</t>
-  </si>
-  <si>
-    <t>87,17%</t>
+    <t>80,85%</t>
+  </si>
+  <si>
+    <t>87,41%</t>
   </si>
   <si>
     <t>12,93%</t>
   </si>
   <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
   </si>
   <si>
     <t>8,58%</t>
   </si>
   <si>
-    <t>6,83%</t>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
   </si>
   <si>
     <t>10,86%</t>
   </si>
   <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
   </si>
   <si>
     <t>87,07%</t>
   </si>
   <si>
-    <t>84,67%</t>
-  </si>
-  <si>
-    <t>89,32%</t>
+    <t>84,66%</t>
+  </si>
+  <si>
+    <t>89,11%</t>
   </si>
   <si>
     <t>91,42%</t>
   </si>
   <si>
-    <t>93,17%</t>
+    <t>89,46%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
   </si>
   <si>
     <t>89,14%</t>
   </si>
   <si>
-    <t>87,56%</t>
-  </si>
-  <si>
-    <t>90,49%</t>
+    <t>87,5%</t>
+  </si>
+  <si>
+    <t>90,43%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -807,7 +813,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40BBF9AE-A17E-4CEC-BFB7-5B9222789763}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26CC9CAD-CE3A-467D-83A4-C10A90D7846D}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1727,7 +1733,7 @@
         <v>107</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>35</v>
+        <v>108</v>
       </c>
       <c r="M19" s="7">
         <v>213</v>
@@ -1736,13 +1742,13 @@
         <v>149158</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1757,13 +1763,13 @@
         <v>628281</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H20" s="7">
         <v>850</v>
@@ -1772,13 +1778,13 @@
         <v>595506</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>44</v>
+        <v>116</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M20" s="7">
         <v>1695</v>
@@ -1787,13 +1793,13 @@
         <v>1223788</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1849,7 +1855,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/ip24_2023_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/ip24_2023_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D768C4D-6821-45F1-93D7-261BA3D0A1AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6FFEA64F-06A6-49E3-A473-36B3A12DF26B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A6347CE5-A202-4C30-8669-D4B6A4F825C4}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{3EDCC27B-A6C1-4FE1-BBF5-C20A96E319DA}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="105">
   <si>
     <t>Menores que no realizan actividad física en su tiempo libre en 2023 (Tasa respuesta: 99,38%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -65,340 +65,289 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>57,36%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>32,19%</t>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>74,59%</t>
-  </si>
-  <si>
-    <t>42,64%</t>
-  </si>
-  <si>
-    <t>91,69%</t>
-  </si>
-  <si>
-    <t>90,77%</t>
-  </si>
-  <si>
-    <t>75,75%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>83,96%</t>
-  </si>
-  <si>
-    <t>67,81%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
+    <t>89,41%</t>
+  </si>
+  <si>
+    <t>85,0%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>88,7%</t>
+  </si>
+  <si>
+    <t>82,14%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>89,02%</t>
+  </si>
+  <si>
+    <t>85,08%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
   </si>
   <si>
     <t>10,73%</t>
   </si>
   <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
   </si>
   <si>
     <t>89,27%</t>
   </si>
   <si>
-    <t>82,95%</t>
-  </si>
-  <si>
-    <t>93,67%</t>
-  </si>
-  <si>
-    <t>89,34%</t>
-  </si>
-  <si>
-    <t>84,27%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>89,3%</t>
-  </si>
-  <si>
-    <t>84,47%</t>
-  </si>
-  <si>
-    <t>92,35%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>88,84%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>88,52%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>89,88%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>92,42%</t>
+  </si>
+  <si>
+    <t>88,97%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>90,1%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>94,1%</t>
+  </si>
+  <si>
+    <t>88,18%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>87,39%</t>
+  </si>
+  <si>
+    <t>81,2%</t>
+  </si>
+  <si>
+    <t>91,7%</t>
+  </si>
+  <si>
+    <t>90,8%</t>
+  </si>
+  <si>
+    <t>87,03%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>89,26%</t>
+  </si>
+  <si>
+    <t>84,24%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>78,66%</t>
+  </si>
+  <si>
+    <t>72,99%</t>
+  </si>
+  <si>
+    <t>83,99%</t>
+  </si>
+  <si>
+    <t>83,74%</t>
+  </si>
+  <si>
+    <t>80,07%</t>
+  </si>
+  <si>
+    <t>86,81%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
   </si>
   <si>
     <t>6,68%</t>
   </si>
   <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>86,96%</t>
-  </si>
-  <si>
-    <t>81,47%</t>
-  </si>
-  <si>
-    <t>91,28%</t>
-  </si>
-  <si>
-    <t>93,77%</t>
-  </si>
-  <si>
-    <t>87,64%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>90,33%</t>
-  </si>
-  <si>
-    <t>86,79%</t>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>91,59%</t>
+  </si>
+  <si>
+    <t>89,42%</t>
   </si>
   <si>
     <t>93,32%</t>
   </si>
   <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>26,62%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>79,13%</t>
-  </si>
-  <si>
-    <t>73,38%</t>
-  </si>
-  <si>
-    <t>84,3%</t>
-  </si>
-  <si>
-    <t>89,42%</t>
-  </si>
-  <si>
-    <t>84,89%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
-  </si>
-  <si>
-    <t>84,21%</t>
-  </si>
-  <si>
-    <t>80,85%</t>
-  </si>
-  <si>
-    <t>87,41%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>87,07%</t>
-  </si>
-  <si>
-    <t>84,66%</t>
-  </si>
-  <si>
-    <t>89,11%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
-  </si>
-  <si>
-    <t>89,46%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>89,14%</t>
-  </si>
-  <si>
-    <t>87,5%</t>
-  </si>
-  <si>
-    <t>90,43%</t>
+    <t>87,23%</t>
+  </si>
+  <si>
+    <t>84,82%</t>
+  </si>
+  <si>
+    <t>89,4%</t>
+  </si>
+  <si>
+    <t>87,42%</t>
+  </si>
+  <si>
+    <t>90,67%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -813,8 +762,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26CC9CAD-CE3A-467D-83A4-C10A90D7846D}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E73F082-EB84-4B28-9452-0DAD72421B81}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -931,10 +880,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="D4" s="7">
-        <v>3099</v>
+        <v>12384</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -946,10 +895,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="I4" s="7">
-        <v>1550</v>
+        <v>15806</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -961,10 +910,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="N4" s="7">
-        <v>4648</v>
+        <v>28191</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -982,10 +931,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>14</v>
+        <v>170</v>
       </c>
       <c r="D5" s="7">
-        <v>9096</v>
+        <v>104517</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -997,10 +946,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>25</v>
+        <v>149</v>
       </c>
       <c r="I5" s="7">
-        <v>15237</v>
+        <v>124077</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1012,10 +961,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>39</v>
+        <v>319</v>
       </c>
       <c r="N5" s="7">
-        <v>24335</v>
+        <v>228592</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1033,10 +982,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>18</v>
+        <v>195</v>
       </c>
       <c r="D6" s="7">
-        <v>12195</v>
+        <v>116901</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1048,10 +997,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>28</v>
+        <v>170</v>
       </c>
       <c r="I6" s="7">
-        <v>16787</v>
+        <v>139883</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1063,10 +1012,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>46</v>
+        <v>365</v>
       </c>
       <c r="N6" s="7">
-        <v>28983</v>
+        <v>256783</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1086,10 +1035,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D7" s="7">
-        <v>12295</v>
+        <v>14345</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1101,10 +1050,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="I7" s="7">
-        <v>11036</v>
+        <v>19237</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1116,10 +1065,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="N7" s="7">
-        <v>23331</v>
+        <v>33582</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1137,10 +1086,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>135</v>
+        <v>256</v>
       </c>
       <c r="D8" s="7">
-        <v>102301</v>
+        <v>176167</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1152,10 +1101,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>145</v>
+        <v>313</v>
       </c>
       <c r="I8" s="7">
-        <v>92479</v>
+        <v>234470</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1167,10 +1116,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>280</v>
+        <v>569</v>
       </c>
       <c r="N8" s="7">
-        <v>194779</v>
+        <v>410638</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1188,10 +1137,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>152</v>
+        <v>280</v>
       </c>
       <c r="D9" s="7">
-        <v>114596</v>
+        <v>190512</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1203,10 +1152,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>167</v>
+        <v>341</v>
       </c>
       <c r="I9" s="7">
-        <v>103515</v>
+        <v>253707</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1218,10 +1167,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>319</v>
+        <v>621</v>
       </c>
       <c r="N9" s="7">
-        <v>218110</v>
+        <v>444220</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1241,10 +1190,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="D10" s="7">
-        <v>19086</v>
+        <v>11193</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1256,34 +1205,34 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I10" s="7">
-        <v>14751</v>
+        <v>23065</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="N10" s="7">
-        <v>33837</v>
+        <v>34258</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1292,49 +1241,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>313</v>
+        <v>213</v>
       </c>
       <c r="D11" s="7">
-        <v>229832</v>
+        <v>178392</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>256</v>
+        <v>194</v>
       </c>
       <c r="I11" s="7">
-        <v>177601</v>
+        <v>159803</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>569</v>
+        <v>407</v>
       </c>
       <c r="N11" s="7">
-        <v>407433</v>
+        <v>338195</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1343,10 +1292,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>341</v>
+        <v>226</v>
       </c>
       <c r="D12" s="7">
-        <v>248918</v>
+        <v>189585</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1358,10 +1307,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>280</v>
+        <v>220</v>
       </c>
       <c r="I12" s="7">
-        <v>192352</v>
+        <v>182868</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1373,10 +1322,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>621</v>
+        <v>446</v>
       </c>
       <c r="N12" s="7">
-        <v>441270</v>
+        <v>372453</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1390,55 +1339,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D13" s="7">
-        <v>22288</v>
+        <v>17924</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="I13" s="7">
-        <v>10454</v>
+        <v>38681</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="N13" s="7">
-        <v>32742</v>
+        <v>56605</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1447,49 +1396,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="D14" s="7">
-        <v>148570</v>
+        <v>148907</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>213</v>
+        <v>189</v>
       </c>
       <c r="I14" s="7">
-        <v>157448</v>
+        <v>142557</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="N14" s="7">
-        <v>306018</v>
+        <v>291464</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1498,10 +1447,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>220</v>
+        <v>238</v>
       </c>
       <c r="D15" s="7">
-        <v>170858</v>
+        <v>166831</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1513,10 +1462,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="I15" s="7">
-        <v>167902</v>
+        <v>181238</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1528,10 +1477,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>446</v>
+        <v>476</v>
       </c>
       <c r="N15" s="7">
-        <v>338760</v>
+        <v>348069</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1545,55 +1494,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="D16" s="7">
-        <v>36534</v>
+        <v>55847</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H16" s="7">
-        <v>27</v>
+        <v>124</v>
       </c>
       <c r="I16" s="7">
-        <v>18067</v>
+        <v>96789</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="M16" s="7">
-        <v>76</v>
+        <v>213</v>
       </c>
       <c r="N16" s="7">
-        <v>54600</v>
+        <v>152636</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1602,49 +1551,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>189</v>
+        <v>850</v>
       </c>
       <c r="D17" s="7">
-        <v>138482</v>
+        <v>607982</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H17" s="7">
-        <v>211</v>
+        <v>845</v>
       </c>
       <c r="I17" s="7">
-        <v>152740</v>
+        <v>660908</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M17" s="7">
-        <v>400</v>
+        <v>1695</v>
       </c>
       <c r="N17" s="7">
-        <v>291222</v>
+        <v>1268890</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1653,10 +1602,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>238</v>
+        <v>939</v>
       </c>
       <c r="D18" s="7">
-        <v>175016</v>
+        <v>663829</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -1668,10 +1617,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>238</v>
+        <v>969</v>
       </c>
       <c r="I18" s="7">
-        <v>170807</v>
+        <v>757697</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1683,10 +1632,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>476</v>
+        <v>1908</v>
       </c>
       <c r="N18" s="7">
-        <v>345822</v>
+        <v>1421526</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -1699,171 +1648,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>124</v>
-      </c>
-      <c r="D19" s="7">
-        <v>93301</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="F19" s="7" t="s">
+      <c r="A19" t="s">
         <v>104</v>
       </c>
-      <c r="G19" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="H19" s="7">
-        <v>89</v>
-      </c>
-      <c r="I19" s="7">
-        <v>55857</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="M19" s="7">
-        <v>213</v>
-      </c>
-      <c r="N19" s="7">
-        <v>149158</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>845</v>
-      </c>
-      <c r="D20" s="7">
-        <v>628281</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="H20" s="7">
-        <v>850</v>
-      </c>
-      <c r="I20" s="7">
-        <v>595506</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1695</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1223788</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>969</v>
-      </c>
-      <c r="D21" s="7">
-        <v>721582</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>939</v>
-      </c>
-      <c r="I21" s="7">
-        <v>651363</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>1908</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1372946</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>121</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
